--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -215,9 +305,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -305,6 +392,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -359,9 +455,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -467,9 +560,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -498,6 +588,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -556,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
@@ -1059,22 +1155,22 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -1082,22 +1178,22 @@
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1105,22 +1201,22 @@
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -1128,22 +1224,22 @@
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -1151,22 +1247,22 @@
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -1174,22 +1270,22 @@
         <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -1197,22 +1293,22 @@
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1220,22 +1316,22 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1243,22 +1339,22 @@
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -1266,22 +1362,22 @@
         <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -1289,22 +1385,22 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -1312,22 +1408,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1335,39 +1431,39 @@
         <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1378,19 +1474,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1401,19 +1497,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1424,19 +1520,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1447,19 +1543,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1470,19 +1566,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1493,19 +1589,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1516,19 +1612,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1635,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1658,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1681,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1704,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1727,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1750,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1677,22 +1773,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1700,19 +1796,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1819,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1842,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1865,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1888,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1911,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1934,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1957,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1884,19 +1980,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1907,22 +2003,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1930,22 +2026,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1953,19 +2049,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1976,306 +2072,306 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>100</v>
@@ -2284,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>101</v>
@@ -2293,12 +2389,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>102</v>
@@ -2307,21 +2403,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>104</v>
@@ -2330,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>105</v>
@@ -2339,12 +2435,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
@@ -2353,21 +2449,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>108</v>
@@ -2376,220 +2472,220 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2597,19 +2693,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2716,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2739,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2762,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2785,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2808,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2831,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,22 +2854,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2781,19 +2877,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,22 +2900,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2827,22 +2923,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2850,19 +2946,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2969,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,22 +2992,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2919,22 +3015,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2942,19 +3038,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,22 +3061,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2988,19 +3084,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,22 +3107,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3034,19 +3130,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,22 +3153,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3080,22 +3176,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3103,19 +3199,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3222,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3245,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3268,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,22 +3291,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3218,19 +3314,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,22 +3337,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3264,22 +3360,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3287,22 +3383,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3310,19 +3406,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3429,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3452,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3475,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3498,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3521,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3544,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3567,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,19 +3590,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3613,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3636,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3659,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3682,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3705,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3728,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3751,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3774,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3797,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3820,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3843,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3770,617 +3866,617 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4391,22 +4487,22 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>35</v>
@@ -4414,19 +4510,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4437,24 +4533,944 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -652,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2397,7 +2397,7 @@
         <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2406,7 +2406,7 @@
         <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2420,7 +2420,7 @@
         <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2429,7 +2429,7 @@
         <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2466,7 +2466,7 @@
         <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2475,7 +2475,7 @@
         <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2489,7 +2489,7 @@
         <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2498,7 +2498,7 @@
         <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2512,7 +2512,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2521,7 +2521,7 @@
         <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2535,7 +2535,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2544,7 +2544,7 @@
         <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2558,7 +2558,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2567,7 +2567,7 @@
         <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2590,7 +2590,7 @@
         <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2604,7 +2604,7 @@
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2613,7 +2613,7 @@
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2627,7 +2627,7 @@
         <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2636,7 +2636,7 @@
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2647,25 +2647,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -2673,19 +2673,19 @@
         <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2696,16 +2696,16 @@
         <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2719,16 +2719,16 @@
         <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2742,7 +2742,7 @@
         <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2751,7 +2751,7 @@
         <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2774,7 +2774,7 @@
         <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2788,7 +2788,7 @@
         <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2797,7 +2797,7 @@
         <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2811,16 +2811,16 @@
         <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2834,7 +2834,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2843,10 +2843,10 @@
         <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2857,7 +2857,7 @@
         <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2866,10 +2866,10 @@
         <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2880,7 +2880,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2889,10 +2889,10 @@
         <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2903,7 +2903,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2912,7 +2912,7 @@
         <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
@@ -2926,19 +2926,19 @@
         <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2949,7 +2949,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -2958,7 +2958,7 @@
         <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2972,19 @@
         <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2995,7 +2995,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3004,7 +3004,7 @@
         <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>22</v>
@@ -3018,7 +3018,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3027,10 +3027,10 @@
         <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -3041,7 +3041,7 @@
         <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3050,10 +3050,10 @@
         <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -3064,7 +3064,7 @@
         <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3073,10 +3073,10 @@
         <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3087,7 +3087,7 @@
         <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3096,10 +3096,10 @@
         <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3110,7 +3110,7 @@
         <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3119,10 +3119,10 @@
         <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3133,7 +3133,7 @@
         <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3142,10 +3142,10 @@
         <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3156,7 +3156,7 @@
         <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3179,19 +3179,19 @@
         <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3202,7 +3202,7 @@
         <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3211,7 +3211,7 @@
         <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3225,7 +3225,7 @@
         <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3234,7 +3234,7 @@
         <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3248,16 +3248,16 @@
         <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3271,7 +3271,7 @@
         <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3280,10 +3280,10 @@
         <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3294,7 +3294,7 @@
         <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3303,10 +3303,10 @@
         <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3317,7 +3317,7 @@
         <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3326,10 +3326,10 @@
         <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3340,7 +3340,7 @@
         <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3349,7 +3349,7 @@
         <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>22</v>
@@ -3360,22 +3360,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3386,19 +3386,19 @@
         <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3409,16 +3409,16 @@
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3432,16 +3432,16 @@
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3455,7 +3455,7 @@
         <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3464,7 +3464,7 @@
         <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3478,7 +3478,7 @@
         <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3487,7 +3487,7 @@
         <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3501,7 +3501,7 @@
         <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3510,7 +3510,7 @@
         <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3524,16 +3524,16 @@
         <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3547,7 +3547,7 @@
         <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3556,7 +3556,7 @@
         <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3570,7 +3570,7 @@
         <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3579,7 +3579,7 @@
         <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3593,7 +3593,7 @@
         <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3602,7 +3602,7 @@
         <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3616,7 +3616,7 @@
         <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3625,7 +3625,7 @@
         <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3639,16 +3639,16 @@
         <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3662,7 +3662,7 @@
         <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
@@ -3671,7 +3671,7 @@
         <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3685,16 +3685,16 @@
         <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3708,7 +3708,7 @@
         <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3717,7 +3717,7 @@
         <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3731,7 +3731,7 @@
         <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3740,7 +3740,7 @@
         <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3763,7 +3763,7 @@
         <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3777,7 +3777,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3786,7 +3786,7 @@
         <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3800,7 +3800,7 @@
         <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3809,7 +3809,7 @@
         <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3823,7 +3823,7 @@
         <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3832,7 +3832,7 @@
         <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3846,7 +3846,7 @@
         <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3855,7 +3855,7 @@
         <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3869,7 +3869,7 @@
         <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3878,7 +3878,7 @@
         <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3892,16 +3892,16 @@
         <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3915,7 +3915,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3924,7 +3924,7 @@
         <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3938,7 +3938,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3947,7 +3947,7 @@
         <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3961,16 +3961,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3984,7 +3984,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3993,7 +3993,7 @@
         <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4016,7 +4016,7 @@
         <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4030,7 +4030,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4039,7 +4039,7 @@
         <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4053,7 +4053,7 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4062,7 +4062,7 @@
         <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4073,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4099,16 +4099,16 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4122,16 +4122,16 @@
         <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4145,7 +4145,7 @@
         <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4154,7 +4154,7 @@
         <v>66</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4168,16 +4168,16 @@
         <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4191,16 +4191,16 @@
         <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4214,7 +4214,7 @@
         <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -4223,7 +4223,7 @@
         <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4237,16 +4237,16 @@
         <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4260,7 +4260,7 @@
         <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4269,7 +4269,7 @@
         <v>66</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4283,16 +4283,16 @@
         <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4306,7 +4306,7 @@
         <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4315,7 +4315,7 @@
         <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4329,16 +4329,16 @@
         <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4352,7 +4352,7 @@
         <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4361,7 +4361,7 @@
         <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4375,7 +4375,7 @@
         <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4384,7 +4384,7 @@
         <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4398,7 +4398,7 @@
         <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4407,7 +4407,7 @@
         <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4421,16 +4421,16 @@
         <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4444,16 +4444,16 @@
         <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4467,7 +4467,7 @@
         <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4476,7 +4476,7 @@
         <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4490,7 +4490,7 @@
         <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4499,7 +4499,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4513,7 +4513,7 @@
         <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4522,7 +4522,7 @@
         <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4536,16 +4536,16 @@
         <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4559,7 +4559,7 @@
         <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4568,7 +4568,7 @@
         <v>66</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4579,19 +4579,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4605,7 +4605,7 @@
         <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -4614,7 +4614,7 @@
         <v>164</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4628,7 +4628,7 @@
         <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4637,7 +4637,7 @@
         <v>164</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4651,7 +4651,7 @@
         <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4660,7 +4660,7 @@
         <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4674,7 +4674,7 @@
         <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4683,7 +4683,7 @@
         <v>164</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4697,7 +4697,7 @@
         <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4706,7 +4706,7 @@
         <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4720,7 +4720,7 @@
         <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4729,7 +4729,7 @@
         <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4740,25 +4740,25 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179">
@@ -4766,19 +4766,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>181</v>
@@ -4789,16 +4789,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4812,16 +4812,16 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4835,7 +4835,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4844,7 +4844,7 @@
         <v>179</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4858,7 +4858,7 @@
         <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4867,7 +4867,7 @@
         <v>179</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4881,7 +4881,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -4890,7 +4890,7 @@
         <v>179</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4904,16 +4904,16 @@
         <v>178</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4927,7 +4927,7 @@
         <v>178</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4936,10 +4936,10 @@
         <v>179</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>181</v>
@@ -4950,7 +4950,7 @@
         <v>178</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4959,10 +4959,10 @@
         <v>179</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>181</v>
@@ -4973,7 +4973,7 @@
         <v>178</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4982,10 +4982,10 @@
         <v>179</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>181</v>
@@ -4996,7 +4996,7 @@
         <v>178</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5005,7 +5005,7 @@
         <v>179</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>180</v>
@@ -5019,19 +5019,19 @@
         <v>178</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>181</v>
@@ -5042,7 +5042,7 @@
         <v>178</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
@@ -5051,7 +5051,7 @@
         <v>179</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5065,19 +5065,19 @@
         <v>178</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>181</v>
@@ -5088,7 +5088,7 @@
         <v>178</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5097,7 +5097,7 @@
         <v>179</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>180</v>
@@ -5111,7 +5111,7 @@
         <v>178</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5120,10 +5120,10 @@
         <v>179</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>181</v>
@@ -5134,7 +5134,7 @@
         <v>178</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5143,10 +5143,10 @@
         <v>179</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>181</v>
@@ -5157,7 +5157,7 @@
         <v>178</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5166,10 +5166,10 @@
         <v>179</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>181</v>
@@ -5180,7 +5180,7 @@
         <v>178</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5189,10 +5189,10 @@
         <v>179</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>181</v>
@@ -5203,7 +5203,7 @@
         <v>178</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5212,10 +5212,10 @@
         <v>179</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>181</v>
@@ -5226,7 +5226,7 @@
         <v>178</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5235,10 +5235,10 @@
         <v>179</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>181</v>
@@ -5249,7 +5249,7 @@
         <v>178</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>179</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>180</v>
@@ -5272,19 +5272,19 @@
         <v>178</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>181</v>
@@ -5295,7 +5295,7 @@
         <v>178</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
@@ -5304,7 +5304,7 @@
         <v>179</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5318,7 +5318,7 @@
         <v>178</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
@@ -5327,7 +5327,7 @@
         <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5338,25 +5338,25 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205">
@@ -5364,19 +5364,19 @@
         <v>182</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>35</v>
@@ -5387,19 +5387,19 @@
         <v>182</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>35</v>
@@ -5410,16 +5410,16 @@
         <v>182</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5433,44 +5433,21 @@
         <v>182</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
@@ -5022,7 +5022,7 @@
         <v>98</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>179</v>
@@ -5045,7 +5045,7 @@
         <v>100</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>179</v>
@@ -5054,7 +5054,7 @@
         <v>101</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>181</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_133.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -652,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1730,7 +1742,7 @@
         <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1739,7 +1751,7 @@
         <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1753,7 +1765,7 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1762,7 +1774,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1776,7 +1788,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2072,65 +2084,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2153,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2176,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2199,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2222,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2245,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2268,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2314,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2337,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2360,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2383,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2406,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2429,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2475,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2498,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2521,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2544,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2567,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2590,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2613,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2636,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2647,114 +2659,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2762,19 +2774,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2797,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2820,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2831,22 +2843,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2854,22 +2866,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2877,22 +2889,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2900,22 +2912,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2923,19 +2935,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2958,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2981,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>22</v>
@@ -2992,22 +3004,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -3015,22 +3027,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -3038,19 +3050,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>22</v>
@@ -3061,19 +3073,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3084,22 +3096,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3107,22 +3119,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3130,19 +3142,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>22</v>
@@ -3153,22 +3165,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3176,22 +3188,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3199,19 +3211,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3222,22 +3234,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3245,19 +3257,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3280,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>22</v>
@@ -3291,22 +3303,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3314,22 +3326,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3337,22 +3349,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3360,22 +3372,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3383,19 +3395,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3406,22 +3418,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3429,19 +3441,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3452,22 +3464,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>35</v>
@@ -3475,22 +3487,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>35</v>
@@ -3498,22 +3510,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>35</v>
@@ -3521,19 +3533,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3556,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3579,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3602,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3625,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3648,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3671,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3694,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3717,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3740,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3763,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3786,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3809,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3832,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3855,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3878,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3901,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3924,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3947,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3970,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3993,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4004,19 +4016,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4027,19 +4039,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4062,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4085,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4108,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4131,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4154,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4177,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4200,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4223,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4234,19 +4246,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4269,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4280,19 +4292,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4303,19 +4315,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4326,19 +4338,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4349,19 +4361,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4372,19 +4384,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4395,19 +4407,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4418,19 +4430,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4441,19 +4453,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4464,19 +4476,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4487,19 +4499,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4510,19 +4522,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4533,19 +4545,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4556,19 +4568,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4579,19 +4591,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4602,19 +4614,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4625,19 +4637,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4648,19 +4660,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4671,19 +4683,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4694,19 +4706,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4717,19 +4729,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4740,600 +4752,600 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204">
@@ -5341,22 +5353,22 @@
         <v>182</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E204" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="205">
@@ -5364,22 +5376,22 @@
         <v>182</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G205" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206">
@@ -5387,22 +5399,22 @@
         <v>182</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207">
@@ -5410,22 +5422,22 @@
         <v>182</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208">
@@ -5433,21 +5445,251 @@
         <v>182</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>35</v>
       </c>
     </row>
